--- a/biology/Microbiologie/Thiobacillus_thiooxidans/Thiobacillus_thiooxidans.xlsx
+++ b/biology/Microbiologie/Thiobacillus_thiooxidans/Thiobacillus_thiooxidans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce bactérienne Acidithiobacillus thiooxidans est composé de bactéries à Gram négatif de la famille Acidithiobacillaceae incluse dans les Pseudomonadota. Ce sont des bactéries qui jouent un rôle d'importants générateurs de drainage minier acide ce qui pose un problème environnemental majeur dans le monde dans le secteur minier.
 </t>
@@ -513,15 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres[2]. L'étymologie de son espèce type Acidithiobacillus thiooxidans est la suivante : thio.ox’i.dans. Gr. neut. n. theîon, soufre; N.L. v. oxido, faire de l'acide, oxyder; N.L. part. adj. thiooxidans, oxydant le soufre[2],[3].
-Historique
-En 2000, quatre espèces bactériennes faisant partie des Thiobacillus ont été déplacées dans un nouveau genre  nommé Acidithiobacillus à la suite d'un réexamen de leurs caractéristiques biochimiques montrant qu'elles se distinguaient nettement d'autres Thiobacillus[2]. Parmi ces quatre espèces figure Thiobacillus thiooxidans décrite depuis 1922[1] et renommée Acidithiobacillus thiooxidans[2]. Comme les autres Acidithiobacillus, elle a d'abord été classée en 2005 dans la classe des Gammaproteobacteria sur la base des analyses phylogénétiques des séquences d'ARN ribosomal 16S[4],[5]. De nouvelles analyses phylogénétiques multiprotéines ont été ajoutées et ont permis de créer la classe des Acidithiobacillia en 2013 parmi les Pseudomonadota[6],[7]. À l'occasion de cette caractérisation, l'ordre des Acidithiobacillales a été déplacé de la classe Gammaproteobacteria vers la nouvelle classe Acidithiobacillia ainsi que les familles, genres et espèces la composant[6].
-Synonymes
-Les noms suivants représentent les basonymes de cette espèce, c'est-à-dire ses anciens noms :
-Thiobacillus thiooxidans[3]
-Thiobacillus concretivorus[3]
-Acidithiobacillus concretivorus[3]</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres. L'étymologie de son espèce type Acidithiobacillus thiooxidans est la suivante : thio.ox’i.dans. Gr. neut. n. theîon, soufre; N.L. v. oxido, faire de l'acide, oxyder; N.L. part. adj. thiooxidans, oxydant le soufre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thiobacillus_thiooxidans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thiobacillus_thiooxidans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, quatre espèces bactériennes faisant partie des Thiobacillus ont été déplacées dans un nouveau genre  nommé Acidithiobacillus à la suite d'un réexamen de leurs caractéristiques biochimiques montrant qu'elles se distinguaient nettement d'autres Thiobacillus. Parmi ces quatre espèces figure Thiobacillus thiooxidans décrite depuis 1922 et renommée Acidithiobacillus thiooxidans. Comme les autres Acidithiobacillus, elle a d'abord été classée en 2005 dans la classe des Gammaproteobacteria sur la base des analyses phylogénétiques des séquences d'ARN ribosomal 16S,. De nouvelles analyses phylogénétiques multiprotéines ont été ajoutées et ont permis de créer la classe des Acidithiobacillia en 2013 parmi les Pseudomonadota,. À l'occasion de cette caractérisation, l'ordre des Acidithiobacillales a été déplacé de la classe Gammaproteobacteria vers la nouvelle classe Acidithiobacillia ainsi que les familles, genres et espèces la composant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thiobacillus_thiooxidans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thiobacillus_thiooxidans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les noms suivants représentent les basonymes de cette espèce, c'est-à-dire ses anciens noms :
+Thiobacillus thiooxidans
+Thiobacillus concretivorus
+Acidithiobacillus concretivorus</t>
         </is>
       </c>
     </row>
